--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_tmm_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_tmm_q.xlsx
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -516,7 +516,25 @@
     <t>Vales de despensa</t>
   </si>
   <si>
-    <t>NS</t>
+    <t>Deducciones</t>
+  </si>
+  <si>
+    <t>Comprobacion</t>
+  </si>
+  <si>
+    <t>NETO</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>VALES</t>
+  </si>
+  <si>
+    <t>DIF</t>
   </si>
 </sst>
 </file>
@@ -896,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -926,7 +944,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,7 +952,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -957,24 +979,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1285,7 +1308,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD38"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,13 +2141,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AE25" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD103"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,14 +2155,15 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="12" width="9.140625"/>
+    <col min="9" max="11" width="9.140625"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
     <col min="13" max="24" width="9.140625" customWidth="1"/>
     <col min="25" max="28" width="9.85546875" customWidth="1"/>
     <col min="29" max="30" width="9.140625"/>
     <col min="31" max="35" width="9.85546875" customWidth="1"/>
     <col min="36" max="36" width="20" customWidth="1"/>
     <col min="37" max="40" width="9.85546875" customWidth="1"/>
-    <col min="41" max="41" width="10.5703125" style="23" customWidth="1"/>
+    <col min="41" max="41" width="10.5703125" customWidth="1"/>
     <col min="42" max="42" width="9.85546875" customWidth="1"/>
     <col min="43" max="43" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2238,18 +2262,18 @@
       <c r="M2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
       <c r="R2" s="35"/>
       <c r="S2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
       <c r="X2" s="33"/>
       <c r="Y2" s="34" t="s">
         <v>40</v>
@@ -2259,10 +2283,10 @@
         <v>41</v>
       </c>
       <c r="AB2" s="33"/>
-      <c r="AC2" s="38" t="s">
+      <c r="AC2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="39"/>
+      <c r="AD2" s="37"/>
       <c r="AE2" s="34" t="s">
         <v>42</v>
       </c>
@@ -2407,15 +2431,22 @@
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="Y2:Z2"/>
@@ -2424,13 +2455,6 @@
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
@@ -2441,14 +2465,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:U248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="B44" sqref="B44"/>
       <selection pane="topRight" activeCell="B44" sqref="B44"/>
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD47"/>
+      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2467,12 +2491,11 @@
     <col min="12" max="12" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="27" customWidth="1"/>
-    <col min="16" max="23" width="10.5703125" style="28" customWidth="1"/>
-    <col min="24" max="24" width="9.5703125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="26" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="17" t="s">
         <v>53</v>
       </c>
@@ -2509,46 +2532,48 @@
       <c r="N1" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="40" t="s">
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -2591,22 +2616,815 @@
       <c r="N3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="O3" s="42" t="s">
         <v>86</v>
       </c>
+      <c r="P3" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O39"/>
+    </row>
+    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O40"/>
+    </row>
+    <row r="41" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O41"/>
+    </row>
+    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O42"/>
+    </row>
+    <row r="43" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O43"/>
+    </row>
+    <row r="44" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O44"/>
+    </row>
+    <row r="45" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O45"/>
+    </row>
+    <row r="46" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O46"/>
+    </row>
+    <row r="47" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O47"/>
+    </row>
+    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O48"/>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O49"/>
+    </row>
+    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O50"/>
+    </row>
+    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O51"/>
+    </row>
+    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O52"/>
+    </row>
+    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O53"/>
+    </row>
+    <row r="54" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O54"/>
+    </row>
+    <row r="55" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O55"/>
+    </row>
+    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O56"/>
+    </row>
+    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O57"/>
+    </row>
+    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O58"/>
+    </row>
+    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O59"/>
+    </row>
+    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O60"/>
+    </row>
+    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O61"/>
+    </row>
+    <row r="62" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O62"/>
+    </row>
+    <row r="63" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O63"/>
+    </row>
+    <row r="64" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O64"/>
+    </row>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O65"/>
+    </row>
+    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O66"/>
+    </row>
+    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O67"/>
+    </row>
+    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O68"/>
+    </row>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O69"/>
+    </row>
+    <row r="70" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O70"/>
+    </row>
+    <row r="71" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O71"/>
+    </row>
+    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O72"/>
+    </row>
+    <row r="73" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O73"/>
+    </row>
+    <row r="74" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O74"/>
+    </row>
+    <row r="75" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O75"/>
+    </row>
+    <row r="76" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O76"/>
+    </row>
+    <row r="77" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O77"/>
+    </row>
+    <row r="78" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O78"/>
+    </row>
+    <row r="79" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O79"/>
+    </row>
+    <row r="80" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O80"/>
+    </row>
+    <row r="81" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O81"/>
+    </row>
+    <row r="82" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O82"/>
+    </row>
+    <row r="83" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O83"/>
+    </row>
+    <row r="84" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O84"/>
+    </row>
+    <row r="85" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O85"/>
+    </row>
+    <row r="86" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O86"/>
+    </row>
+    <row r="87" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O87"/>
+    </row>
+    <row r="88" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O88"/>
+    </row>
+    <row r="89" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O89"/>
+    </row>
+    <row r="90" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O90"/>
+    </row>
+    <row r="91" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O91"/>
+    </row>
+    <row r="92" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O92"/>
+    </row>
+    <row r="93" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O93"/>
+    </row>
+    <row r="94" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O94"/>
+    </row>
+    <row r="95" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O95"/>
+    </row>
+    <row r="96" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O96"/>
+    </row>
+    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O97"/>
+    </row>
+    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O98"/>
+    </row>
+    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O99"/>
+    </row>
+    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O100"/>
+    </row>
+    <row r="101" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O102"/>
+    </row>
+    <row r="103" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O111"/>
+    </row>
+    <row r="112" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O119"/>
+    </row>
+    <row r="120" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O120"/>
+    </row>
+    <row r="121" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O121"/>
+    </row>
+    <row r="122" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O122"/>
+    </row>
+    <row r="123" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O123"/>
+    </row>
+    <row r="124" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O124"/>
+    </row>
+    <row r="125" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O125"/>
+    </row>
+    <row r="126" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O126"/>
+    </row>
+    <row r="127" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O127"/>
+    </row>
+    <row r="128" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O128"/>
+    </row>
+    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O129"/>
+    </row>
+    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O130"/>
+    </row>
+    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O131"/>
+    </row>
+    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O132"/>
+    </row>
+    <row r="133" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O133"/>
+    </row>
+    <row r="134" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O134"/>
+    </row>
+    <row r="135" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O135"/>
+    </row>
+    <row r="136" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O136"/>
+    </row>
+    <row r="137" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O137"/>
+    </row>
+    <row r="138" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O138"/>
+    </row>
+    <row r="139" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O139"/>
+    </row>
+    <row r="140" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O140"/>
+    </row>
+    <row r="141" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O141"/>
+    </row>
+    <row r="142" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O142"/>
+    </row>
+    <row r="143" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O143"/>
+    </row>
+    <row r="144" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O144"/>
+    </row>
+    <row r="145" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O145"/>
+    </row>
+    <row r="146" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O146"/>
+    </row>
+    <row r="147" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O147"/>
+    </row>
+    <row r="148" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O148"/>
+    </row>
+    <row r="149" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O149"/>
+    </row>
+    <row r="150" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O150"/>
+    </row>
+    <row r="151" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O151"/>
+    </row>
+    <row r="152" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O152"/>
+    </row>
+    <row r="153" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O153"/>
+    </row>
+    <row r="154" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O154"/>
+    </row>
+    <row r="155" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O155"/>
+    </row>
+    <row r="156" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O156"/>
+    </row>
+    <row r="157" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O157"/>
+    </row>
+    <row r="158" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O158"/>
+    </row>
+    <row r="159" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O159"/>
+    </row>
+    <row r="160" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O160"/>
+    </row>
+    <row r="161" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O161"/>
+    </row>
+    <row r="162" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O162"/>
+    </row>
+    <row r="163" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O163"/>
+    </row>
+    <row r="164" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O164"/>
+    </row>
+    <row r="165" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O165"/>
+    </row>
+    <row r="166" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O166"/>
+    </row>
+    <row r="167" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O167"/>
+    </row>
+    <row r="168" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O168"/>
+    </row>
+    <row r="169" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O169"/>
+    </row>
+    <row r="170" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O170"/>
+    </row>
+    <row r="171" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O171"/>
+    </row>
+    <row r="172" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O172"/>
+    </row>
+    <row r="173" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O173"/>
+    </row>
+    <row r="174" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O174"/>
+    </row>
+    <row r="175" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O175"/>
+    </row>
+    <row r="176" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O176"/>
+    </row>
+    <row r="177" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O177"/>
+    </row>
+    <row r="178" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O178"/>
+    </row>
+    <row r="179" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O179"/>
+    </row>
+    <row r="180" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O180"/>
+    </row>
+    <row r="181" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O181"/>
+    </row>
+    <row r="182" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O182"/>
+    </row>
+    <row r="183" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O183"/>
+    </row>
+    <row r="184" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O184"/>
+    </row>
+    <row r="185" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O185"/>
+    </row>
+    <row r="186" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O186"/>
+    </row>
+    <row r="187" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O187"/>
+    </row>
+    <row r="188" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O188"/>
+    </row>
+    <row r="189" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O189"/>
+    </row>
+    <row r="190" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O190"/>
+    </row>
+    <row r="191" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O191"/>
+    </row>
+    <row r="192" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O192"/>
+    </row>
+    <row r="193" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O193"/>
+    </row>
+    <row r="194" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O194"/>
+    </row>
+    <row r="195" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O195"/>
+    </row>
+    <row r="196" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O196"/>
+    </row>
+    <row r="197" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O197"/>
+    </row>
+    <row r="198" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O198"/>
+    </row>
+    <row r="199" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O199"/>
+    </row>
+    <row r="200" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O200"/>
+    </row>
+    <row r="201" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O201"/>
+    </row>
+    <row r="202" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O202"/>
+    </row>
+    <row r="203" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O203"/>
+    </row>
+    <row r="204" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O204"/>
+    </row>
+    <row r="205" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O205"/>
+    </row>
+    <row r="206" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O206"/>
+    </row>
+    <row r="207" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O207"/>
+    </row>
+    <row r="208" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O208"/>
+    </row>
+    <row r="209" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O209"/>
+    </row>
+    <row r="210" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O210"/>
+    </row>
+    <row r="211" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O211"/>
+    </row>
+    <row r="212" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O212"/>
+    </row>
+    <row r="213" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O213"/>
+    </row>
+    <row r="214" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O214"/>
+    </row>
+    <row r="215" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O215"/>
+    </row>
+    <row r="216" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O216"/>
+    </row>
+    <row r="217" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O217"/>
+    </row>
+    <row r="218" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O218"/>
+    </row>
+    <row r="219" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O219"/>
+    </row>
+    <row r="220" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O220"/>
+    </row>
+    <row r="221" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O221"/>
+    </row>
+    <row r="222" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O222"/>
+    </row>
+    <row r="223" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O223"/>
+    </row>
+    <row r="224" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O224"/>
+    </row>
+    <row r="225" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O225"/>
+    </row>
+    <row r="226" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O226"/>
+    </row>
+    <row r="227" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O227"/>
+    </row>
+    <row r="228" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O228"/>
+    </row>
+    <row r="229" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O229"/>
+    </row>
+    <row r="230" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O230"/>
+    </row>
+    <row r="231" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O231"/>
+    </row>
+    <row r="232" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O232"/>
+    </row>
+    <row r="233" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O233"/>
+    </row>
+    <row r="234" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O234"/>
+    </row>
+    <row r="235" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O235"/>
+    </row>
+    <row r="236" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O236"/>
+    </row>
+    <row r="237" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O237"/>
+    </row>
+    <row r="238" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O238"/>
+    </row>
+    <row r="239" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O239"/>
+    </row>
+    <row r="240" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O240"/>
+    </row>
+    <row r="241" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O241"/>
+    </row>
+    <row r="242" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O242"/>
+    </row>
+    <row r="243" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O243"/>
+    </row>
+    <row r="244" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O244"/>
+    </row>
+    <row r="245" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O245"/>
+    </row>
+    <row r="246" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O246"/>
+    </row>
+    <row r="247" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O247"/>
+    </row>
+    <row r="248" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O248"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="N2"/>
+  <mergeCells count="8">
     <mergeCell ref="C2"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="G2"/>
     <mergeCell ref="H2"/>
     <mergeCell ref="I2"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2623,13 +3441,14 @@
       <selection activeCell="B44" sqref="B44"/>
       <selection pane="topRight" activeCell="B44" sqref="B44"/>
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD41"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_tmm_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_tmm_q.xlsx
@@ -27,7 +27,7 @@
     <author>Eduardo</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -535,6 +535,12 @@
   </si>
   <si>
     <t>DIF</t>
+  </si>
+  <si>
+    <t>Código P.</t>
+  </si>
+  <si>
+    <t>Régimen Fiscal</t>
   </si>
 </sst>
 </file>
@@ -628,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -909,20 +915,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
@@ -958,15 +996,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,7 +1029,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1302,13 +1357,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,818 +1373,869 @@
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="41.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" customWidth="1"/>
-    <col min="29" max="29" width="40.85546875" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" customWidth="1"/>
+    <col min="13" max="13" width="32" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="41.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" customWidth="1"/>
+    <col min="24" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" customWidth="1"/>
+    <col min="30" max="30" width="21.7109375" customWidth="1"/>
+    <col min="31" max="31" width="18.28515625" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="L1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="P1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="S1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="29" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="Y1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="29" t="s">
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="29" t="s">
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AF1" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="L48" s="4"/>
+    <row r="2" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="K2" s="29"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="K3" s="30"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="K4" s="30"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="K5" s="30"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="K6" s="30"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="K7" s="30"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="K8" s="30"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="K9" s="30"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="K10" s="30"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="K11" s="30"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="K12" s="30"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="K13" s="30"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="K14" s="30"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="K15" s="30"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="K16" s="30"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="K17" s="30"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="K18" s="30"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="K19" s="30"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="K20" s="30"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="K21" s="30"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="K22" s="30"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="K23" s="30"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="K24" s="30"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="K25" s="30"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="K26" s="30"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="K27" s="30"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="K28" s="30"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="K29" s="30"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="K30" s="30"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="K31" s="30"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="K32" s="30"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="K33" s="30"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="K34" s="30"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="K35" s="30"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="K36" s="30"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="M48" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="J1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" priority="147" operator="lessThan">
+    <cfRule type="cellIs" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" priority="148" operator="lessThan">
+    <cfRule type="cellIs" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" priority="149" operator="lessThan">
+    <cfRule type="cellIs" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" priority="150" operator="lessThan">
+    <cfRule type="cellIs" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" priority="151" operator="lessThan">
+    <cfRule type="cellIs" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" priority="152" operator="lessThan">
+    <cfRule type="cellIs" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" priority="153" operator="lessThan">
+    <cfRule type="cellIs" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" priority="154" operator="lessThan">
+    <cfRule type="cellIs" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" priority="155" operator="lessThan">
+    <cfRule type="cellIs" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" priority="156" operator="lessThan">
+    <cfRule type="cellIs" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" priority="157" operator="lessThan">
+    <cfRule type="cellIs" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" priority="158" operator="lessThan">
+    <cfRule type="cellIs" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" priority="159" operator="lessThan">
+    <cfRule type="cellIs" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" priority="160" operator="lessThan">
+    <cfRule type="cellIs" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" priority="161" operator="lessThan">
+    <cfRule type="cellIs" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" priority="162" operator="lessThan">
+    <cfRule type="cellIs" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" priority="163" operator="lessThan">
+    <cfRule type="cellIs" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" priority="164" operator="lessThan">
+    <cfRule type="cellIs" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" priority="165" operator="lessThan">
+    <cfRule type="cellIs" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" priority="166" operator="lessThan">
+    <cfRule type="cellIs" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" priority="167" operator="lessThan">
+    <cfRule type="cellIs" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" priority="168" operator="lessThan">
+    <cfRule type="cellIs" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" priority="169" operator="lessThan">
+    <cfRule type="cellIs" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" priority="170" operator="lessThan">
+    <cfRule type="cellIs" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" priority="171" operator="lessThan">
+    <cfRule type="cellIs" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" priority="172" operator="lessThan">
+    <cfRule type="cellIs" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" priority="173" operator="lessThan">
+    <cfRule type="cellIs" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" priority="174" operator="lessThan">
+    <cfRule type="cellIs" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" priority="175" operator="lessThan">
+    <cfRule type="cellIs" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" priority="176" operator="lessThan">
+    <cfRule type="cellIs" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" priority="177" operator="lessThan">
+    <cfRule type="cellIs" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" priority="178" operator="lessThan">
+    <cfRule type="cellIs" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" priority="179" operator="lessThan">
+    <cfRule type="cellIs" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" priority="180" operator="lessThan">
+    <cfRule type="cellIs" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" priority="181" operator="lessThan">
+    <cfRule type="cellIs" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" priority="182" operator="lessThan">
+    <cfRule type="cellIs" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" priority="183" operator="lessThan">
+    <cfRule type="cellIs" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" priority="184" operator="lessThan">
+    <cfRule type="cellIs" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" priority="185" operator="lessThan">
+    <cfRule type="cellIs" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" priority="186" operator="lessThan">
+    <cfRule type="cellIs" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" priority="187" operator="lessThan">
+    <cfRule type="cellIs" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" priority="188" operator="lessThan">
+    <cfRule type="cellIs" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" priority="189" operator="lessThan">
+    <cfRule type="cellIs" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" priority="190" operator="lessThan">
+    <cfRule type="cellIs" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" priority="191" operator="lessThan">
+    <cfRule type="cellIs" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" priority="192" operator="lessThan">
+    <cfRule type="cellIs" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" priority="193" operator="lessThan">
+    <cfRule type="cellIs" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" priority="194" operator="lessThan">
+    <cfRule type="cellIs" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" priority="195" operator="lessThan">
+    <cfRule type="cellIs" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" priority="196" operator="lessThan">
+    <cfRule type="cellIs" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" priority="197" operator="lessThan">
+    <cfRule type="cellIs" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" priority="198" operator="lessThan">
+    <cfRule type="cellIs" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" priority="199" operator="lessThan">
+    <cfRule type="cellIs" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" priority="200" operator="lessThan">
+    <cfRule type="cellIs" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" priority="201" operator="lessThan">
+    <cfRule type="cellIs" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" priority="202" operator="lessThan">
+    <cfRule type="cellIs" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" priority="203" operator="lessThan">
+    <cfRule type="cellIs" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" priority="204" operator="lessThan">
+    <cfRule type="cellIs" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" priority="205" operator="lessThan">
+    <cfRule type="cellIs" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" priority="206" operator="lessThan">
+    <cfRule type="cellIs" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" priority="207" operator="lessThan">
+    <cfRule type="cellIs" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" priority="208" operator="lessThan">
+    <cfRule type="cellIs" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" priority="209" operator="lessThan">
+    <cfRule type="cellIs" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" priority="210" operator="lessThan">
+    <cfRule type="cellIs" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" priority="211" operator="lessThan">
+    <cfRule type="cellIs" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" priority="212" operator="lessThan">
+    <cfRule type="cellIs" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" priority="213" operator="lessThan">
+    <cfRule type="cellIs" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" priority="214" operator="lessThan">
+    <cfRule type="cellIs" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" priority="215" operator="lessThan">
+    <cfRule type="cellIs" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" priority="216" operator="lessThan">
+    <cfRule type="cellIs" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" priority="217" operator="lessThan">
+    <cfRule type="cellIs" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" priority="218" operator="lessThan">
+    <cfRule type="cellIs" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" priority="219" operator="lessThan">
+    <cfRule type="cellIs" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" priority="220" operator="lessThan">
+    <cfRule type="cellIs" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" priority="221" operator="lessThan">
+    <cfRule type="cellIs" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" priority="222" operator="lessThan">
+    <cfRule type="cellIs" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" priority="223" operator="lessThan">
+    <cfRule type="cellIs" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" priority="224" operator="lessThan">
+    <cfRule type="cellIs" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" priority="225" operator="lessThan">
+    <cfRule type="cellIs" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" priority="226" operator="lessThan">
+    <cfRule type="cellIs" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" priority="227" operator="lessThan">
+    <cfRule type="cellIs" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" priority="228" operator="lessThan">
+    <cfRule type="cellIs" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" priority="229" operator="lessThan">
+    <cfRule type="cellIs" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" priority="230" operator="lessThan">
+    <cfRule type="cellIs" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" priority="231" operator="lessThan">
+    <cfRule type="cellIs" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" priority="232" operator="lessThan">
+    <cfRule type="cellIs" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" priority="233" operator="lessThan">
+    <cfRule type="cellIs" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="cellIs" priority="234" operator="lessThan">
+    <cfRule type="cellIs" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" priority="235" operator="lessThan">
+    <cfRule type="cellIs" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="cellIs" priority="236" operator="lessThan">
+    <cfRule type="cellIs" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" priority="237" operator="lessThan">
+    <cfRule type="cellIs" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="cellIs" priority="238" operator="lessThan">
+    <cfRule type="cellIs" priority="239" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" priority="239" operator="lessThan">
+    <cfRule type="cellIs" priority="240" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="cellIs" priority="240" operator="lessThan">
+    <cfRule type="cellIs" priority="241" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2169,274 +2275,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="6" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="8" t="s">
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="6" t="s">
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="8" t="s">
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="8" t="s">
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="6" t="s">
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="8" t="s">
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="6" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="8" t="s">
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="9"/>
+      <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="32" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="34" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="32" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="34" t="s">
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="32" t="s">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="36" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="34" t="s">
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="32" t="s">
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="34" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="32" t="s">
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34" t="s">
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="35"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="Z3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AB3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" s="21" t="s">
+      <c r="AC3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AD3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AF3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AG3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AH3" s="14" t="s">
+      <c r="AH3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AI3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="14" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AK3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AL3" s="14" t="s">
+      <c r="AL3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AM3" s="13" t="s">
+      <c r="AM3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AN3" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2491,150 +2597,150 @@
     <col min="12" max="12" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="26" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="25" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>62</v>
       </c>
       <c r="O1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>72</v>
       </c>
       <c r="O2"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="S3" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="42" t="s">
+      <c r="T3" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="U3" s="42" t="s">
+      <c r="U3" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3417,14 +3523,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="G2"/>
     <mergeCell ref="H2"/>
     <mergeCell ref="I2"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3452,26 +3558,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>75</v>
       </c>
     </row>

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_tmm_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_tmm_q.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>Régimen Fiscal</t>
+  </si>
+  <si>
+    <t>330/004</t>
+  </si>
+  <si>
+    <t>Vales de despensa d</t>
   </si>
 </sst>
 </file>
@@ -955,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -999,6 +1005,33 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,46 +1044,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1359,7 +1368,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1401,86 +1410,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="42" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="41" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="46" t="s">
+      <c r="T1" s="39"/>
+      <c r="U1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="41" t="s">
+      <c r="V1" s="39"/>
+      <c r="W1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="46" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="46" t="s">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="41" t="s">
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="48" t="s">
+      <c r="AF1" s="35" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2249,8 +2258,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AE25" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="U25" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
@@ -2345,74 +2354,74 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="31" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="33" t="s">
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="31" t="s">
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="33" t="s">
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="31" t="s">
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="33" t="s">
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="31" t="s">
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="33" t="s">
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="34"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -2546,13 +2555,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="Y2:Z2"/>
@@ -2561,6 +2563,13 @@
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
@@ -2571,14 +2580,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:U248"/>
+  <dimension ref="A1:V248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="B44" sqref="B44"/>
       <selection pane="topRight" activeCell="B44" sqref="B44"/>
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,11 +2606,12 @@
     <col min="12" max="12" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="25" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="16" t="s">
         <v>53</v>
       </c>
@@ -2638,13 +2648,16 @@
       <c r="N1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="O1"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C2" s="40" t="s">
+      <c r="O1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="48" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="22" t="s">
@@ -2653,22 +2666,22 @@
       <c r="F2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="48" t="s">
         <v>70</v>
       </c>
       <c r="M2" s="26" t="s">
@@ -2677,9 +2690,12 @@
       <c r="N2" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="O2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2722,29 +2738,32 @@
       <c r="N3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="Q3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="R3" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="S3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="T3" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="U3" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="V3" s="28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2787,739 +2806,762 @@
       <c r="N4">
         <v>14</v>
       </c>
-      <c r="O4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O5"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O6"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O8"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O9"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O10"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O11"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O12"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O13"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O14"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O16"/>
-    </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O17"/>
-    </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O18"/>
-    </row>
-    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O19"/>
-    </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O20"/>
-    </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O21"/>
-    </row>
-    <row r="22" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O34"/>
-    </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O37"/>
-    </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O38"/>
-    </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O39"/>
-    </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O40"/>
-    </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O41"/>
-    </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O42"/>
-    </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O43"/>
-    </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O44"/>
-    </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O45"/>
-    </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O46"/>
-    </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O47"/>
-    </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O48"/>
-    </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O49"/>
-    </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O50"/>
-    </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O51"/>
-    </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O52"/>
-    </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O53"/>
-    </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O54"/>
-    </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O55"/>
-    </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O56"/>
-    </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O57"/>
-    </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O58"/>
-    </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O59"/>
-    </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O60"/>
-    </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O61"/>
-    </row>
-    <row r="62" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O62"/>
-    </row>
-    <row r="63" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O63"/>
-    </row>
-    <row r="64" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O64"/>
-    </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O65"/>
-    </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O66"/>
-    </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O67"/>
-    </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O68"/>
-    </row>
-    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O69"/>
-    </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O70"/>
-    </row>
-    <row r="71" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O71"/>
-    </row>
-    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O72"/>
-    </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O73"/>
-    </row>
-    <row r="74" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O74"/>
-    </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O75"/>
-    </row>
-    <row r="76" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O76"/>
-    </row>
-    <row r="77" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O77"/>
-    </row>
-    <row r="78" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O78"/>
-    </row>
-    <row r="79" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O79"/>
-    </row>
-    <row r="80" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O80"/>
-    </row>
-    <row r="81" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O81"/>
-    </row>
-    <row r="82" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O82"/>
-    </row>
-    <row r="83" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O83"/>
-    </row>
-    <row r="84" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O84"/>
-    </row>
-    <row r="85" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O85"/>
-    </row>
-    <row r="86" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O86"/>
-    </row>
-    <row r="87" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O87"/>
-    </row>
-    <row r="88" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O88"/>
-    </row>
-    <row r="89" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O89"/>
-    </row>
-    <row r="90" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O90"/>
-    </row>
-    <row r="91" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O91"/>
-    </row>
-    <row r="92" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O92"/>
-    </row>
-    <row r="93" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O93"/>
-    </row>
-    <row r="94" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O94"/>
-    </row>
-    <row r="95" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O95"/>
-    </row>
-    <row r="96" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O96"/>
-    </row>
-    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O97"/>
-    </row>
-    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O98"/>
-    </row>
-    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O99"/>
-    </row>
-    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O100"/>
-    </row>
-    <row r="101" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O101"/>
-    </row>
-    <row r="102" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O102"/>
-    </row>
-    <row r="103" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O103"/>
-    </row>
-    <row r="104" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O104"/>
-    </row>
-    <row r="105" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O105"/>
-    </row>
-    <row r="106" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O106"/>
-    </row>
-    <row r="107" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O107"/>
-    </row>
-    <row r="108" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O108"/>
-    </row>
-    <row r="109" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O109"/>
-    </row>
-    <row r="110" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O110"/>
-    </row>
-    <row r="111" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O111"/>
-    </row>
-    <row r="112" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O112"/>
-    </row>
-    <row r="113" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O113"/>
-    </row>
-    <row r="114" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O114"/>
-    </row>
-    <row r="115" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O115"/>
-    </row>
-    <row r="116" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O116"/>
-    </row>
-    <row r="117" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O117"/>
-    </row>
-    <row r="118" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O118"/>
-    </row>
-    <row r="119" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O119"/>
-    </row>
-    <row r="120" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O120"/>
-    </row>
-    <row r="121" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O121"/>
-    </row>
-    <row r="122" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O122"/>
-    </row>
-    <row r="123" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O123"/>
-    </row>
-    <row r="124" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O124"/>
-    </row>
-    <row r="125" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O125"/>
-    </row>
-    <row r="126" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O126"/>
-    </row>
-    <row r="127" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O127"/>
-    </row>
-    <row r="128" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O128"/>
-    </row>
-    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O129"/>
-    </row>
-    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O130"/>
-    </row>
-    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O131"/>
-    </row>
-    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O132"/>
-    </row>
-    <row r="133" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O133"/>
-    </row>
-    <row r="134" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O134"/>
-    </row>
-    <row r="135" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O135"/>
-    </row>
-    <row r="136" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O136"/>
-    </row>
-    <row r="137" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O137"/>
-    </row>
-    <row r="138" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O138"/>
-    </row>
-    <row r="139" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O139"/>
-    </row>
-    <row r="140" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O140"/>
-    </row>
-    <row r="141" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O141"/>
-    </row>
-    <row r="142" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O142"/>
-    </row>
-    <row r="143" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O143"/>
-    </row>
-    <row r="144" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O144"/>
-    </row>
-    <row r="145" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O145"/>
-    </row>
-    <row r="146" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O146"/>
-    </row>
-    <row r="147" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O147"/>
-    </row>
-    <row r="148" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O148"/>
-    </row>
-    <row r="149" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O149"/>
-    </row>
-    <row r="150" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O150"/>
-    </row>
-    <row r="151" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O151"/>
-    </row>
-    <row r="152" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O152"/>
-    </row>
-    <row r="153" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O153"/>
-    </row>
-    <row r="154" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O154"/>
-    </row>
-    <row r="155" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O155"/>
-    </row>
-    <row r="156" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O156"/>
-    </row>
-    <row r="157" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O157"/>
-    </row>
-    <row r="158" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O158"/>
-    </row>
-    <row r="159" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O159"/>
-    </row>
-    <row r="160" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O160"/>
-    </row>
-    <row r="161" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O161"/>
-    </row>
-    <row r="162" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O162"/>
-    </row>
-    <row r="163" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O163"/>
-    </row>
-    <row r="164" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O164"/>
-    </row>
-    <row r="165" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O165"/>
-    </row>
-    <row r="166" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O166"/>
-    </row>
-    <row r="167" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O167"/>
-    </row>
-    <row r="168" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O168"/>
-    </row>
-    <row r="169" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O169"/>
-    </row>
-    <row r="170" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O170"/>
-    </row>
-    <row r="171" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O171"/>
-    </row>
-    <row r="172" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O172"/>
-    </row>
-    <row r="173" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O173"/>
-    </row>
-    <row r="174" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O174"/>
-    </row>
-    <row r="175" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O175"/>
-    </row>
-    <row r="176" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O176"/>
-    </row>
-    <row r="177" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O177"/>
-    </row>
-    <row r="178" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O178"/>
-    </row>
-    <row r="179" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O179"/>
-    </row>
-    <row r="180" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O180"/>
-    </row>
-    <row r="181" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O181"/>
-    </row>
-    <row r="182" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O182"/>
-    </row>
-    <row r="183" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O183"/>
-    </row>
-    <row r="184" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O184"/>
-    </row>
-    <row r="185" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O185"/>
-    </row>
-    <row r="186" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O186"/>
-    </row>
-    <row r="187" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O187"/>
-    </row>
-    <row r="188" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O188"/>
-    </row>
-    <row r="189" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O189"/>
-    </row>
-    <row r="190" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O190"/>
-    </row>
-    <row r="191" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O191"/>
-    </row>
-    <row r="192" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O192"/>
-    </row>
-    <row r="193" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O193"/>
-    </row>
-    <row r="194" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O194"/>
-    </row>
-    <row r="195" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O195"/>
-    </row>
-    <row r="196" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O196"/>
-    </row>
-    <row r="197" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O197"/>
-    </row>
-    <row r="198" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O198"/>
-    </row>
-    <row r="199" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O199"/>
-    </row>
-    <row r="200" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O200"/>
-    </row>
-    <row r="201" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O201"/>
-    </row>
-    <row r="202" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O202"/>
-    </row>
-    <row r="203" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O203"/>
-    </row>
-    <row r="204" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O204"/>
-    </row>
-    <row r="205" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O205"/>
-    </row>
-    <row r="206" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O206"/>
-    </row>
-    <row r="207" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O207"/>
-    </row>
-    <row r="208" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O208"/>
-    </row>
-    <row r="209" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O209"/>
-    </row>
-    <row r="210" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O210"/>
-    </row>
-    <row r="211" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O211"/>
-    </row>
-    <row r="212" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O212"/>
-    </row>
-    <row r="213" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O213"/>
-    </row>
-    <row r="214" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O214"/>
-    </row>
-    <row r="215" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O215"/>
-    </row>
-    <row r="216" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O216"/>
-    </row>
-    <row r="217" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O217"/>
-    </row>
-    <row r="218" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O218"/>
-    </row>
-    <row r="219" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O219"/>
-    </row>
-    <row r="220" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O220"/>
-    </row>
-    <row r="221" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O221"/>
-    </row>
-    <row r="222" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O222"/>
-    </row>
-    <row r="223" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O223"/>
-    </row>
-    <row r="224" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O224"/>
-    </row>
-    <row r="225" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O225"/>
-    </row>
-    <row r="226" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O226"/>
-    </row>
-    <row r="227" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O227"/>
-    </row>
-    <row r="228" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O228"/>
-    </row>
-    <row r="229" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O229"/>
-    </row>
-    <row r="230" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O230"/>
-    </row>
-    <row r="231" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O231"/>
-    </row>
-    <row r="232" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O232"/>
-    </row>
-    <row r="233" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O233"/>
-    </row>
-    <row r="234" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O234"/>
-    </row>
-    <row r="235" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O235"/>
-    </row>
-    <row r="236" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O236"/>
-    </row>
-    <row r="237" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O237"/>
-    </row>
-    <row r="238" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O238"/>
-    </row>
-    <row r="239" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O239"/>
-    </row>
-    <row r="240" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O240"/>
-    </row>
-    <row r="241" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O241"/>
-    </row>
-    <row r="242" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O242"/>
-    </row>
-    <row r="243" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O243"/>
-    </row>
-    <row r="244" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O244"/>
-    </row>
-    <row r="245" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O245"/>
-    </row>
-    <row r="246" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O246"/>
-    </row>
-    <row r="247" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O247"/>
-    </row>
-    <row r="248" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O248"/>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
+      <c r="S4">
+        <v>19</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>21</v>
+      </c>
+      <c r="V4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P36"/>
+    </row>
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P38"/>
+    </row>
+    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P39"/>
+    </row>
+    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P40"/>
+    </row>
+    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P41"/>
+    </row>
+    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P42"/>
+    </row>
+    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P43"/>
+    </row>
+    <row r="44" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P44"/>
+    </row>
+    <row r="45" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P45"/>
+    </row>
+    <row r="46" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P46"/>
+    </row>
+    <row r="47" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P47"/>
+    </row>
+    <row r="48" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P48"/>
+    </row>
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P49"/>
+    </row>
+    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P50"/>
+    </row>
+    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P51"/>
+    </row>
+    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P52"/>
+    </row>
+    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P53"/>
+    </row>
+    <row r="54" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P54"/>
+    </row>
+    <row r="55" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P55"/>
+    </row>
+    <row r="56" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P56"/>
+    </row>
+    <row r="57" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P57"/>
+    </row>
+    <row r="58" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P58"/>
+    </row>
+    <row r="59" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P59"/>
+    </row>
+    <row r="60" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P60"/>
+    </row>
+    <row r="61" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P61"/>
+    </row>
+    <row r="62" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P62"/>
+    </row>
+    <row r="63" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P63"/>
+    </row>
+    <row r="64" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P64"/>
+    </row>
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P65"/>
+    </row>
+    <row r="66" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P66"/>
+    </row>
+    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P67"/>
+    </row>
+    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P68"/>
+    </row>
+    <row r="69" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P69"/>
+    </row>
+    <row r="70" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P70"/>
+    </row>
+    <row r="71" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P71"/>
+    </row>
+    <row r="72" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P72"/>
+    </row>
+    <row r="73" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P73"/>
+    </row>
+    <row r="74" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P74"/>
+    </row>
+    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P75"/>
+    </row>
+    <row r="76" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P76"/>
+    </row>
+    <row r="77" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P77"/>
+    </row>
+    <row r="78" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P78"/>
+    </row>
+    <row r="79" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P79"/>
+    </row>
+    <row r="80" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P80"/>
+    </row>
+    <row r="81" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P81"/>
+    </row>
+    <row r="82" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P82"/>
+    </row>
+    <row r="83" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P83"/>
+    </row>
+    <row r="84" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P84"/>
+    </row>
+    <row r="85" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P85"/>
+    </row>
+    <row r="86" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P86"/>
+    </row>
+    <row r="87" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P87"/>
+    </row>
+    <row r="88" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P88"/>
+    </row>
+    <row r="89" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P89"/>
+    </row>
+    <row r="90" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P90"/>
+    </row>
+    <row r="91" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P91"/>
+    </row>
+    <row r="92" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P92"/>
+    </row>
+    <row r="93" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P93"/>
+    </row>
+    <row r="94" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P94"/>
+    </row>
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P95"/>
+    </row>
+    <row r="96" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P96"/>
+    </row>
+    <row r="97" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P97"/>
+    </row>
+    <row r="98" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P98"/>
+    </row>
+    <row r="99" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P99"/>
+    </row>
+    <row r="100" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P100"/>
+    </row>
+    <row r="101" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P101"/>
+    </row>
+    <row r="102" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P102"/>
+    </row>
+    <row r="103" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P103"/>
+    </row>
+    <row r="104" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P104"/>
+    </row>
+    <row r="105" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P105"/>
+    </row>
+    <row r="106" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P106"/>
+    </row>
+    <row r="107" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P107"/>
+    </row>
+    <row r="108" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P108"/>
+    </row>
+    <row r="109" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P109"/>
+    </row>
+    <row r="110" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P110"/>
+    </row>
+    <row r="111" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P111"/>
+    </row>
+    <row r="112" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P112"/>
+    </row>
+    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P113"/>
+    </row>
+    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P114"/>
+    </row>
+    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P115"/>
+    </row>
+    <row r="116" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P116"/>
+    </row>
+    <row r="117" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P117"/>
+    </row>
+    <row r="118" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P118"/>
+    </row>
+    <row r="119" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P119"/>
+    </row>
+    <row r="120" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P120"/>
+    </row>
+    <row r="121" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P121"/>
+    </row>
+    <row r="122" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P122"/>
+    </row>
+    <row r="123" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P123"/>
+    </row>
+    <row r="124" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P124"/>
+    </row>
+    <row r="125" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P125"/>
+    </row>
+    <row r="126" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P126"/>
+    </row>
+    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P127"/>
+    </row>
+    <row r="128" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P128"/>
+    </row>
+    <row r="129" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P129"/>
+    </row>
+    <row r="130" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P130"/>
+    </row>
+    <row r="131" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P131"/>
+    </row>
+    <row r="132" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P132"/>
+    </row>
+    <row r="133" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P133"/>
+    </row>
+    <row r="134" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P134"/>
+    </row>
+    <row r="135" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P135"/>
+    </row>
+    <row r="136" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P136"/>
+    </row>
+    <row r="137" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P137"/>
+    </row>
+    <row r="138" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P138"/>
+    </row>
+    <row r="139" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P139"/>
+    </row>
+    <row r="140" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P140"/>
+    </row>
+    <row r="141" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P141"/>
+    </row>
+    <row r="142" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P142"/>
+    </row>
+    <row r="143" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P143"/>
+    </row>
+    <row r="144" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P144"/>
+    </row>
+    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P145"/>
+    </row>
+    <row r="146" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P146"/>
+    </row>
+    <row r="147" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P147"/>
+    </row>
+    <row r="148" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P148"/>
+    </row>
+    <row r="149" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P149"/>
+    </row>
+    <row r="150" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P150"/>
+    </row>
+    <row r="151" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P151"/>
+    </row>
+    <row r="152" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P152"/>
+    </row>
+    <row r="153" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P153"/>
+    </row>
+    <row r="154" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P154"/>
+    </row>
+    <row r="155" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P155"/>
+    </row>
+    <row r="156" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P156"/>
+    </row>
+    <row r="157" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P157"/>
+    </row>
+    <row r="158" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P158"/>
+    </row>
+    <row r="159" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P159"/>
+    </row>
+    <row r="160" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P160"/>
+    </row>
+    <row r="161" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P161"/>
+    </row>
+    <row r="162" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P162"/>
+    </row>
+    <row r="163" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P163"/>
+    </row>
+    <row r="164" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P164"/>
+    </row>
+    <row r="165" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P165"/>
+    </row>
+    <row r="166" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P166"/>
+    </row>
+    <row r="167" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P167"/>
+    </row>
+    <row r="168" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P168"/>
+    </row>
+    <row r="169" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P169"/>
+    </row>
+    <row r="170" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P170"/>
+    </row>
+    <row r="171" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P171"/>
+    </row>
+    <row r="172" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P172"/>
+    </row>
+    <row r="173" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P173"/>
+    </row>
+    <row r="174" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P174"/>
+    </row>
+    <row r="175" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P175"/>
+    </row>
+    <row r="176" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P176"/>
+    </row>
+    <row r="177" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P177"/>
+    </row>
+    <row r="178" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P178"/>
+    </row>
+    <row r="179" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P179"/>
+    </row>
+    <row r="180" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P180"/>
+    </row>
+    <row r="181" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P181"/>
+    </row>
+    <row r="182" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P182"/>
+    </row>
+    <row r="183" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P183"/>
+    </row>
+    <row r="184" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P184"/>
+    </row>
+    <row r="185" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P185"/>
+    </row>
+    <row r="186" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P186"/>
+    </row>
+    <row r="187" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P187"/>
+    </row>
+    <row r="188" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P188"/>
+    </row>
+    <row r="189" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P189"/>
+    </row>
+    <row r="190" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P190"/>
+    </row>
+    <row r="191" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P191"/>
+    </row>
+    <row r="192" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P192"/>
+    </row>
+    <row r="193" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P193"/>
+    </row>
+    <row r="194" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P194"/>
+    </row>
+    <row r="195" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P195"/>
+    </row>
+    <row r="196" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P196"/>
+    </row>
+    <row r="197" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P197"/>
+    </row>
+    <row r="198" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P198"/>
+    </row>
+    <row r="199" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P199"/>
+    </row>
+    <row r="200" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P200"/>
+    </row>
+    <row r="201" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P201"/>
+    </row>
+    <row r="202" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P202"/>
+    </row>
+    <row r="203" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P203"/>
+    </row>
+    <row r="204" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P204"/>
+    </row>
+    <row r="205" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P205"/>
+    </row>
+    <row r="206" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P206"/>
+    </row>
+    <row r="207" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P207"/>
+    </row>
+    <row r="208" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P208"/>
+    </row>
+    <row r="209" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P209"/>
+    </row>
+    <row r="210" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P210"/>
+    </row>
+    <row r="211" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P211"/>
+    </row>
+    <row r="212" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P212"/>
+    </row>
+    <row r="213" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P213"/>
+    </row>
+    <row r="214" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P214"/>
+    </row>
+    <row r="215" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P215"/>
+    </row>
+    <row r="216" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P216"/>
+    </row>
+    <row r="217" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P217"/>
+    </row>
+    <row r="218" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P218"/>
+    </row>
+    <row r="219" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P219"/>
+    </row>
+    <row r="220" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P220"/>
+    </row>
+    <row r="221" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P221"/>
+    </row>
+    <row r="222" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P222"/>
+    </row>
+    <row r="223" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P223"/>
+    </row>
+    <row r="224" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P224"/>
+    </row>
+    <row r="225" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P225"/>
+    </row>
+    <row r="226" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P226"/>
+    </row>
+    <row r="227" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P227"/>
+    </row>
+    <row r="228" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P228"/>
+    </row>
+    <row r="229" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P229"/>
+    </row>
+    <row r="230" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P230"/>
+    </row>
+    <row r="231" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P231"/>
+    </row>
+    <row r="232" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P232"/>
+    </row>
+    <row r="233" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P233"/>
+    </row>
+    <row r="234" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P234"/>
+    </row>
+    <row r="235" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P235"/>
+    </row>
+    <row r="236" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P236"/>
+    </row>
+    <row r="237" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P237"/>
+    </row>
+    <row r="238" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P238"/>
+    </row>
+    <row r="239" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P239"/>
+    </row>
+    <row r="240" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P240"/>
+    </row>
+    <row r="241" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P241"/>
+    </row>
+    <row r="242" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P242"/>
+    </row>
+    <row r="243" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P243"/>
+    </row>
+    <row r="244" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P244"/>
+    </row>
+    <row r="245" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P245"/>
+    </row>
+    <row r="246" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P246"/>
+    </row>
+    <row r="247" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P247"/>
+    </row>
+    <row r="248" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P248"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3564,10 +3606,10 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
